--- a/Data/Output/Jira Status Report.xlsx
+++ b/Data/Output/Jira Status Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\Jira Bot ReFramework\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8D4891-0232-406F-BA6C-5A3427B17F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D19A5C2-ACE5-4E81-B5E1-DEE4C5A50D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -43,7 +43,7 @@
     <x:t>Failure Reason(If Any)</x:t>
   </x:si>
   <x:si>
-    <x:t>06-Feb-2022 07:10:49</x:t>
+    <x:t>12-Feb-2022 06:16:35</x:t>
   </x:si>
   <x:si>
     <x:t>Griffin RPA Demo</x:t>
@@ -58,43 +58,43 @@
     <x:t>Business rule exception.  Ticket type/Issue Type cannot be Empty</x:t>
   </x:si>
   <x:si>
-    <x:t>06-Feb-2022 07:11:08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRD-2755</x:t>
+    <x:t>12-Feb-2022 06:16:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRD-2776</x:t>
   </x:si>
   <x:si>
     <x:t>Success</x:t>
   </x:si>
   <x:si>
-    <x:t>06-Feb-2022 07:11:12</x:t>
+    <x:t>12-Feb-2022 06:16:57</x:t>
   </x:si>
   <x:si>
     <x:t>Business rule exception.  You must specify a summary of the issue.</x:t>
   </x:si>
   <x:si>
-    <x:t>06-Feb-2022 07:11:42</x:t>
+    <x:t>12-Feb-2022 06:17:27</x:t>
   </x:si>
   <x:si>
     <x:t>Business rule exception.  User 'Pesh Kirigo' does not exist.</x:t>
   </x:si>
   <x:si>
-    <x:t>06-Feb-2022 07:12:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRD-2756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-Feb-2022 07:12:03</x:t>
+    <x:t>12-Feb-2022 06:17:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRD-2777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-Feb-2022 06:17:47</x:t>
   </x:si>
   <x:si>
     <x:t>Business rule exception.  Assignee Field cannot be empty</x:t>
   </x:si>
   <x:si>
-    <x:t>06-Feb-2022 07:12:22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRD-2757</x:t>
+    <x:t>12-Feb-2022 06:18:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRD-2778</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -449,7 +449,7 @@
   <x:dimension ref="A1:E1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E6" sqref="E6 E6:E6"/>
+      <x:selection activeCell="A3" sqref="A3 A3:A3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
